--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Ccl28</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08341966666666667</v>
+        <v>0.1197343333333333</v>
       </c>
       <c r="H2">
-        <v>0.250259</v>
+        <v>0.359203</v>
       </c>
       <c r="I2">
-        <v>0.3202794553717348</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3456272304411717</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.01104365160444444</v>
+        <v>0.01647169259088889</v>
       </c>
       <c r="R2">
-        <v>0.09939286443999999</v>
+        <v>0.148245233318</v>
       </c>
       <c r="S2">
-        <v>0.09535489363497408</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="T2">
-        <v>0.1029015356536576</v>
+        <v>0.2896572731203081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,294 +596,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08341966666666667</v>
+        <v>0.1197343333333333</v>
       </c>
       <c r="H3">
-        <v>0.250259</v>
+        <v>0.359203</v>
       </c>
       <c r="I3">
-        <v>0.3202794553717348</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3456272304411717</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>0.02604993202144444</v>
+        <v>0.04039445274511112</v>
       </c>
       <c r="R3">
-        <v>0.234449388193</v>
+        <v>0.363550074706</v>
       </c>
       <c r="S3">
-        <v>0.2249245617367607</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="T3">
-        <v>0.242725694787514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.1197343333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.359203</v>
-      </c>
-      <c r="I4">
-        <v>0.4597051103372636</v>
-      </c>
-      <c r="J4">
-        <v>0.4960874056723641</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.1323866666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.39716</v>
-      </c>
-      <c r="O4">
-        <v>0.2977240407890032</v>
-      </c>
-      <c r="P4">
-        <v>0.2977240407890032</v>
-      </c>
-      <c r="Q4">
-        <v>0.01585122927555555</v>
-      </c>
-      <c r="R4">
-        <v>0.14266106348</v>
-      </c>
-      <c r="S4">
-        <v>0.1368652630209647</v>
-      </c>
-      <c r="T4">
-        <v>0.1476971470013097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1197343333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.359203</v>
-      </c>
-      <c r="I5">
-        <v>0.4597051103372636</v>
-      </c>
-      <c r="J5">
-        <v>0.4960874056723641</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.3122756666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.936827</v>
-      </c>
-      <c r="O5">
-        <v>0.7022759592109968</v>
-      </c>
-      <c r="P5">
-        <v>0.7022759592109967</v>
-      </c>
-      <c r="Q5">
-        <v>0.03739011876455556</v>
-      </c>
-      <c r="R5">
-        <v>0.336511068881</v>
-      </c>
-      <c r="S5">
-        <v>0.3228398473162989</v>
-      </c>
-      <c r="T5">
-        <v>0.3483902586710543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.05730499999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.11461</v>
-      </c>
-      <c r="I6">
-        <v>0.2200154342910016</v>
-      </c>
-      <c r="J6">
-        <v>0.1582853638864643</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1323866666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.39716</v>
-      </c>
-      <c r="O6">
-        <v>0.2977240407890032</v>
-      </c>
-      <c r="P6">
-        <v>0.2977240407890032</v>
-      </c>
-      <c r="Q6">
-        <v>0.007586417933333331</v>
-      </c>
-      <c r="R6">
-        <v>0.04551850759999999</v>
-      </c>
-      <c r="S6">
-        <v>0.06550388413306442</v>
-      </c>
-      <c r="T6">
-        <v>0.04712535813403591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.05730499999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.11461</v>
-      </c>
-      <c r="I7">
-        <v>0.2200154342910016</v>
-      </c>
-      <c r="J7">
-        <v>0.1582853638864643</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3122756666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.936827</v>
-      </c>
-      <c r="O7">
-        <v>0.7022759592109968</v>
-      </c>
-      <c r="P7">
-        <v>0.7022759592109967</v>
-      </c>
-      <c r="Q7">
-        <v>0.01789495707833333</v>
-      </c>
-      <c r="R7">
-        <v>0.10736974247</v>
-      </c>
-      <c r="S7">
-        <v>0.1545115501579372</v>
-      </c>
-      <c r="T7">
-        <v>0.1111600057524284</v>
+        <v>0.7103427268796919</v>
       </c>
     </row>
   </sheetData>
